--- a/Contacts From Database.xlsx
+++ b/Contacts From Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\AddressBookSystem-BluePrism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9E3C2-FD83-4402-8248-89EC205C41BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597B0C8-20E6-45FE-A441-35D99B565B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
